--- a/PredictionAnalysis.xlsx
+++ b/PredictionAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelo\Documents\GitHub\economic-events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E27DD-9C41-4BB9-B201-4536BF3D2AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C317D-886D-4574-9EE0-60297E7FA20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35670" yWindow="2730" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{A2999C63-BA27-40C2-A21F-71A374710238}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="97">
   <si>
     <t>Event</t>
   </si>
@@ -297,13 +297,40 @@
   </si>
   <si>
     <t>2018.01.31 11:45:00</t>
+  </si>
+  <si>
+    <t>Group_1</t>
+  </si>
+  <si>
+    <t>Group_2</t>
+  </si>
+  <si>
+    <t>Group_3</t>
+  </si>
+  <si>
+    <t>Group_4</t>
+  </si>
+  <si>
+    <t>Group_5</t>
+  </si>
+  <si>
+    <t>Group_6</t>
+  </si>
+  <si>
+    <t>Group_7</t>
+  </si>
+  <si>
+    <t>Group_8</t>
+  </si>
+  <si>
+    <t>Group_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +384,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1736,7 +1769,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1778,8 @@
     <col min="2" max="2" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="86" style="3"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="86" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1777,6 +1811,13 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>A3&amp;","&amp;D3&amp;","&amp;E3</f>
+        <v>840500003,0,Group_1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1791,6 +1832,13 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" ref="F4:F67" si="0">A4&amp;","&amp;D4&amp;","&amp;E4</f>
+        <v>840500002,0,Group_1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1805,6 +1853,13 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020028,1,Group_1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1819,8 +1874,13 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020027,1,Group_1</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1836,8 +1896,13 @@
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840150001,2,Group_1</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,8 +1918,13 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020012,3,Group_1</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,8 +1940,13 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020011,3,Group_1</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1887,8 +1962,13 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020010,3,Group_1</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1904,8 +1984,13 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840230001,4,Group_1</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1921,6 +2006,13 @@
       <c r="D12" s="3">
         <v>5</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020019,5,Group_1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -1935,8 +2027,13 @@
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020008,6,Group_1</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1952,8 +2049,13 @@
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020009,6,Group_1</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1969,8 +2071,13 @@
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010015,7,Group_1</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1986,13 +2093,20 @@
       <c r="D16" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030025,8,Group_1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>840190001</v>
       </c>
@@ -2016,8 +2130,15 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840190001,0,Group_2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>840140001</v>
       </c>
@@ -2030,8 +2151,15 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840140001,1,Group_2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>840100001</v>
       </c>
@@ -2044,8 +2172,15 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840100001,2,Group_2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>840100002</v>
       </c>
@@ -2058,8 +2193,15 @@
       <c r="D23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840100002,2,Group_2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>840030018</v>
       </c>
@@ -2072,8 +2214,15 @@
       <c r="D24" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030018,2,Group_2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>840030016</v>
       </c>
@@ -2086,8 +2235,15 @@
       <c r="D25" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030016,2,Group_2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>840030023</v>
       </c>
@@ -2100,8 +2256,15 @@
       <c r="D26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030023,2,Group_2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>840030015</v>
       </c>
@@ -2114,8 +2277,15 @@
       <c r="D27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030015,2,Group_2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>840030001</v>
       </c>
@@ -2128,8 +2298,15 @@
       <c r="D28" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030001,2,Group_2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>840020013</v>
       </c>
@@ -2142,13 +2319,20 @@
       <c r="D29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020013,3,Group_2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
@@ -2172,6 +2356,13 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
+      <c r="E33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030021,0,Group_3</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
@@ -2186,6 +2377,13 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840220014,1,Group_3</v>
+      </c>
       <c r="I34" s="3" t="s">
         <v>85</v>
       </c>
@@ -2227,6 +2425,13 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
+      <c r="E38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020003,0,Group_4</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -2241,6 +2446,13 @@
       <c r="D39" s="3">
         <v>0</v>
       </c>
+      <c r="E39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840040003,0,Group_4</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
@@ -2255,6 +2467,13 @@
       <c r="D40" s="3">
         <v>0</v>
       </c>
+      <c r="E40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840040005,0,Group_4</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
@@ -2269,6 +2488,13 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
+      <c r="E41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840050026,1,Group_4</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -2283,6 +2509,13 @@
       <c r="D42" s="3">
         <v>2</v>
       </c>
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840050011,2,Group_4</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
@@ -2297,6 +2530,13 @@
       <c r="D43" s="3">
         <v>3</v>
       </c>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840510001,3,Group_4</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
@@ -2311,6 +2551,13 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
+      <c r="E44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840120004,4,Group_4</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
@@ -2325,6 +2572,13 @@
       <c r="D45" s="3">
         <v>4</v>
       </c>
+      <c r="E45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840120003,4,Group_4</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
@@ -2342,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>840220001</v>
       </c>
@@ -2355,8 +2609,15 @@
       <c r="D49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840220001,0,Group_5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>840010001</v>
       </c>
@@ -2369,8 +2630,15 @@
       <c r="D50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010001,1,Group_5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>840010005</v>
       </c>
@@ -2383,8 +2651,15 @@
       <c r="D51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010005,1,Group_5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>840010002</v>
       </c>
@@ -2397,8 +2672,15 @@
       <c r="D52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010002,1,Group_5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>840010003</v>
       </c>
@@ -2411,8 +2693,15 @@
       <c r="D53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010003,1,Group_5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>840010004</v>
       </c>
@@ -2425,13 +2714,20 @@
       <c r="D54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840010004,1,Group_5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>840200001</v>
       </c>
@@ -2455,8 +2751,15 @@
       <c r="D58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840200001,0,Group_6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>840200002</v>
       </c>
@@ -2469,8 +2772,15 @@
       <c r="D59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840200002,0,Group_6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>840020001</v>
       </c>
@@ -2483,8 +2793,15 @@
       <c r="D60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840020001,1,Group_6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>840210002</v>
       </c>
@@ -2497,8 +2814,15 @@
       <c r="D61" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840210002,2,Group_6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>840210001</v>
       </c>
@@ -2511,8 +2835,15 @@
       <c r="D62" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840210001,2,Group_6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>840120001</v>
       </c>
@@ -2525,8 +2856,15 @@
       <c r="D63" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840120001,3,Group_6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>840120002</v>
       </c>
@@ -2539,8 +2877,15 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840120002,3,Group_6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>840050014</v>
       </c>
@@ -2553,8 +2898,15 @@
       <c r="D65" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840050014,4,Group_6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>840030029</v>
       </c>
@@ -2567,8 +2919,15 @@
       <c r="D66" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030029,5,Group_6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>840030028</v>
       </c>
@@ -2581,13 +2940,20 @@
       <c r="D67" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>840030028,5,Group_6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>840040004</v>
       </c>
@@ -2611,8 +2977,15 @@
       <c r="D71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="3" t="str">
+        <f t="shared" ref="F68:F75" si="1">A71&amp;","&amp;D71&amp;","&amp;E71</f>
+        <v>840040004,0,Group_7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>840040001</v>
       </c>
@@ -2625,8 +2998,15 @@
       <c r="D72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840040001,0,Group_7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>840070002</v>
       </c>
@@ -2639,8 +3019,15 @@
       <c r="D73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840070002,1,Group_7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>840070001</v>
       </c>
@@ -2653,8 +3040,15 @@
       <c r="D74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840070001,1,Group_7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>840010007</v>
       </c>
@@ -2667,13 +3061,20 @@
       <c r="D75" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840010007,2,Group_7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>19</v>
       </c>
@@ -2684,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>840020007</v>
       </c>
@@ -2697,8 +3098,15 @@
       <c r="D79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="3" t="str">
+        <f t="shared" ref="F77:F90" si="2">A79&amp;","&amp;D79&amp;","&amp;E79</f>
+        <v>840020007,0,Group_8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>840030005</v>
       </c>
@@ -2711,8 +3119,15 @@
       <c r="D80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840030005,0,Group_8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>840020004</v>
       </c>
@@ -2725,8 +3140,15 @@
       <c r="D81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840020004,1,Group_8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>840020005</v>
       </c>
@@ -2739,8 +3161,15 @@
       <c r="D82" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840020005,1,Group_8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>840020016</v>
       </c>
@@ -2753,8 +3182,15 @@
       <c r="D83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840020016,1,Group_8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>840020015</v>
       </c>
@@ -2767,13 +3203,20 @@
       <c r="D84" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840020015,1,Group_8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>19</v>
       </c>
@@ -2784,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>840170001</v>
       </c>
@@ -2797,8 +3240,15 @@
       <c r="D88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E88" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840170001,0,Group_9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>840500001</v>
       </c>
@@ -2811,8 +3261,15 @@
       <c r="D89" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840500001,1,Group_9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>840180002</v>
       </c>
@@ -2825,8 +3282,16 @@
       <c r="D90" s="3">
         <v>2</v>
       </c>
+      <c r="E90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>840180002,2,Group_9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>